--- a/7rmartSupermarket/src/main/resources/TestData.xlsx
+++ b/7rmartSupermarket/src/main/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreel\git\7rmartSupermarket\7rmartSupermarket\src\main\java\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreel\git\7rmartSupermarket\7rmartSupermarket\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A21977-320D-46F3-A078-27482246B773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F10BFBB-100F-411A-B0B6-BC36FA14ED6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -750,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D645C4E4-9825-4BD1-BBB9-66B03E9AB1F6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -766,7 +766,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E3F8F6-57C6-48C0-8147-6BA75D11E0CE}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
